--- a/Team3/Check-list.xlsx
+++ b/Team3/Check-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Q1822\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\гк\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t xml:space="preserve">№ </t>
   </si>
@@ -184,6 +184,24 @@
   </si>
   <si>
     <t>Windows 10, FF, Opera, Chrome, IE, Safari</t>
+  </si>
+  <si>
+    <t>Нет возмости отслежить товар</t>
+  </si>
+  <si>
+    <t>Банковские транзакции отслуживаются.</t>
+  </si>
+  <si>
+    <t>Доставка товара отслеживется.</t>
+  </si>
+  <si>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>not testing</t>
   </si>
 </sst>
 </file>
@@ -362,47 +380,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,18 +717,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -727,24 +745,24 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -753,35 +771,35 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -797,13 +815,13 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -811,13 +829,13 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -825,35 +843,35 @@
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="2:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -861,13 +879,13 @@
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -875,21 +893,21 @@
       <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -897,21 +915,21 @@
       <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>10</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -919,21 +937,21 @@
       <c r="B21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="2:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>11</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -941,21 +959,21 @@
       <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>12</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -993,23 +1011,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L4"/>
+  <dimension ref="B3:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="18"/>
-    <col min="4" max="4" width="18.85546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="22" style="18" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="18" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="18"/>
-    <col min="11" max="11" width="14.5703125" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="18.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="22" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="14.5703125" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -1048,23 +1067,73 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="4">
         <v>11</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
